--- a/meta/en/6-1-1.xlsx
+++ b/meta/en/6-1-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -94,21 +94,6 @@
     <t>8. References and documentation</t>
   </si>
   <si>
-    <t xml:space="preserve"> National Statistical Committee of the Kyrgyz Republic (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t>Kerimalieva N.K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Integrated Household Budget and Labour Force Sample Survey</t>
   </si>
   <si>
@@ -150,6 +135,21 @@
   <si>
     <t>National household surveys measure the indicator directly, which creates discrepancies with the international methodology. The WHO/UNICEF Joint Monitoring Programme for Water Supply and Sanitation (JMP) estimates access to basic services for each country, separately in urban and rural areas, by fitting a regression line to a series of data points from household surveys and censuses. This approach was used to report on use of ‘improved water’ sources for MDG monitoring. The JMP is evaluating the use of alternative statistical estimation methods as more data become available. The accompanying Methodological Note describes in more detail how data on availability and quality from different sources, can be combined with data on use of different types of supplies, as recorded in the current JMP database to compute the proposed indicator. http://www.wssinfo.org/fileadmin/user_upload/resources/Methodological-note-on-monitoring-SDG-targets-for-WASH-and-wastewater_WHO-UNICEF_8October2015_Final.pdf.  
 WHO is required by World Health Assembly resolution to consult on all WHO statistics, and seek feedback from countries on data about countries and territories. Before publishing, all JMP estimates undergo rigorous country consultations facilitated by WHO and UNICEF country offices. Often these consultations give rise to in-country visits, and meetings about data reconciliations. JMP has been engaged with more than fifty countries over the last 10 years in explaining JMP estimates, and reasons for discrepancies if any. JMP has also developed an online tool to facilitate future data validation and expanded its online capabilities so that these reconciliations could be done in much more interactive and real time manner, reducing cost of reconciliations missions.</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -649,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -717,7 +717,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="260.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
